--- a/zero-erp/src/main/resources/plugin/erp/oob/rule/process.oa.trip/activity-rule.xlsx
+++ b/zero-erp/src/main/resources/plugin/erp/oob/rule/process.oa.trip/activity-rule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/web-app/vertx-zero/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.oa.trip/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xuanhong\zero-ws\zero-extension\zero-erp\src\main\resources\plugin\erp\oob\rule\process.oa.trip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6189F7-6E2A-6B41-944A-2EDCFAB5EA88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584B1208-B0B0-47D3-8E4C-2AAFE48C112F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-54720" yWindow="-1600" windowWidth="51200" windowHeight="22100" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12624" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-CDATA" sheetId="7" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="119">
   <si>
     <t>key</t>
   </si>
@@ -298,10 +298,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>任务单：${zn.taskSerial}分派给了“${un.acceptedBy.realname}”。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>任务单：${zn.taskSerial}通过了审批，被${un.closeBy.realname}关闭。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -364,10 +360,6 @@
     <t>c5e1e99d-9ec8-4cfa-902d-742d5e40290f</t>
   </si>
   <si>
-    <t>$zn.status == "PENDING" and $zn.acceptedBy != null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>$zn.flowEnd == true and $zn.phase == "FINISHED"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -384,9 +376,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$zn.status == "PENDING" and $zn.acceptedBy != null</t>
-  </si>
-  <si>
     <t>$zn.status == "PENDING" and $zo.acceptedBy != null</t>
   </si>
   <si>
@@ -394,85 +383,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>commentApproval</t>
+  </si>
+  <si>
+    <t>cfa4faf3-c892-4ebf-a98d-36c29504ece8</t>
+  </si>
+  <si>
+    <t>e88c5615-28ee-4cdc-b5de-5e082b395f02</t>
+  </si>
+  <si>
+    <t>ab2da973-3255-4ea3-9050-22a9253b120c</t>
+  </si>
+  <si>
+    <t>0a00ac6f-5d85-4d0e-b4b8-b385cdedec4e</t>
+  </si>
+  <si>
+    <t>1faed51b-0f12-4975-b37e-b5d8bdde5429</t>
+  </si>
+  <si>
+    <t>7ed34a62-8c85-468a-bb82-19ee00be2404</t>
+  </si>
+  <si>
+    <t>20bcd5ed-49ba-4eed-b5f5-0129ab5de2c4</t>
+  </si>
+  <si>
+    <t>commentReject</t>
+  </si>
+  <si>
+    <t>linkageAttachment</t>
+  </si>
+  <si>
+    <t>JSON:workflow/linkage/attachment-rule.json</t>
+  </si>
+  <si>
+    <t>$zn.status == "DRAFT" and $zn.phase == "REJECTED"</t>
+  </si>
+  <si>
+    <t>$zn.status == "DRAFT" and $zn.phase == "REDO"</t>
+  </si>
+  <si>
     <t>APPROVAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>审批意见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>$zn.commentApproval != null</t>
-  </si>
-  <si>
-    <t>e.approve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>通过：${zn.commentApproval}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$zo.taskKey == "e.approve" and $zn.commentReject != null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>拒绝：${zn.commentReject}</t>
-  </si>
-  <si>
-    <t>commentApproval</t>
-  </si>
-  <si>
-    <t>cfa4faf3-c892-4ebf-a98d-36c29504ece8</t>
-  </si>
-  <si>
-    <t>e88c5615-28ee-4cdc-b5de-5e082b395f02</t>
-  </si>
-  <si>
-    <t>ab2da973-3255-4ea3-9050-22a9253b120c</t>
-  </si>
-  <si>
-    <t>0a00ac6f-5d85-4d0e-b4b8-b385cdedec4e</t>
-  </si>
-  <si>
-    <t>e.draft</t>
-  </si>
-  <si>
-    <t>e.admit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$zo.taskKey == "e.admit" and $zn.commentReject != null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ATTACHMENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>附件变更</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>$zn.linkageAttachment != null</t>
-  </si>
-  <si>
-    <t>1faed51b-0f12-4975-b37e-b5d8bdde5429</t>
-  </si>
-  <si>
-    <t>7ed34a62-8c85-468a-bb82-19ee00be2404</t>
-  </si>
-  <si>
-    <t>20bcd5ed-49ba-4eed-b5f5-0129ab5de2c4</t>
-  </si>
-  <si>
-    <t>commentReject</t>
-  </si>
-  <si>
-    <t>linkageAttachment</t>
-  </si>
-  <si>
-    <t>JSON:workflow/linkage/attachment-rule.json</t>
-  </si>
-  <si>
-    <t>$zo.taskKey == "e.approve" and $zn.commentReject != null</t>
-  </si>
-  <si>
-    <t>$zo.taskKey == "e.admit" and $zn.commentReject != null</t>
-  </si>
-  <si>
-    <t>$zn.status == "DRAFT" and $zn.phase == "REJECTED"</t>
-  </si>
-  <si>
-    <t>$zn.status == "DRAFT" and $zn.phase == "REDO"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>“${lo.realname}” ${zn.__message}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“${lo.realname}”将任务单：${zn.taskSerial}分派给了“${un.toUser.realname}”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$zn.status == "PENDING" and $zn.toUser != null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -483,13 +482,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -497,7 +496,7 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -505,7 +504,7 @@
     <font>
       <sz val="16"/>
       <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -513,7 +512,7 @@
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -694,7 +693,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -710,7 +709,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1008,32 +1007,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500280C7-B0AC-7C45-9420-F2551253A777}">
   <dimension ref="A2:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="54.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6328125" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="69.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="69.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="111" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.1640625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.1796875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="18.6328125" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="51" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="81.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="10.83203125" style="2"/>
+    <col min="14" max="14" width="81.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="10.81640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
@@ -1057,7 +1056,7 @@
       <c r="O2" s="15"/>
       <c r="P2" s="15"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1107,7 +1106,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -1157,9 +1156,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>45</v>
@@ -1199,9 +1198,9 @@
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>45</v>
@@ -1222,7 +1221,7 @@
         <v>56</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I6" s="11" t="s">
         <v>34</v>
@@ -1241,9 +1240,9 @@
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>45</v>
@@ -1283,9 +1282,9 @@
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>45</v>
@@ -1325,9 +1324,9 @@
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>45</v>
@@ -1345,7 +1344,7 @@
         <v>42</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>64</v>
@@ -1367,9 +1366,9 @@
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>45</v>
@@ -1387,7 +1386,7 @@
         <v>43</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>65</v>
@@ -1409,9 +1408,9 @@
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>59</v>
@@ -1429,10 +1428,10 @@
         <v>37</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I11" s="11" t="s">
         <v>34</v>
@@ -1451,9 +1450,9 @@
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>45</v>
@@ -1471,10 +1470,10 @@
         <v>48</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>34</v>
@@ -1493,9 +1492,9 @@
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>45</v>
@@ -1513,10 +1512,10 @@
         <v>50</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>34</v>
@@ -1537,9 +1536,9 @@
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>45</v>
@@ -1579,9 +1578,9 @@
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>45</v>
@@ -1621,9 +1620,9 @@
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>45</v>
@@ -1641,7 +1640,7 @@
         <v>60</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H16" s="11" t="s">
         <v>66</v>
@@ -1663,9 +1662,9 @@
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>45</v>
@@ -1683,10 +1682,10 @@
         <v>49</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="I17" s="11" t="s">
         <v>34</v>
@@ -1705,9 +1704,9 @@
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>45</v>
@@ -1728,7 +1727,7 @@
         <v>52</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I18" s="11" t="s">
         <v>34</v>
@@ -1749,9 +1748,9 @@
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>45</v>
@@ -1769,7 +1768,7 @@
         <v>40</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H19" s="11" t="s">
         <v>62</v>
@@ -1791,9 +1790,9 @@
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>45</v>
@@ -1811,7 +1810,7 @@
         <v>55</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H20" s="11" t="s">
         <v>63</v>
@@ -1833,9 +1832,9 @@
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>45</v>
@@ -1853,10 +1852,10 @@
         <v>51</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I21" s="18" t="s">
         <v>34</v>
@@ -1875,9 +1874,9 @@
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>45</v>
@@ -1886,19 +1885,19 @@
         <v>36</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E22" s="9">
         <v>2005</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>109</v>
       </c>
       <c r="I22" s="18" t="s">
         <v>34</v>
@@ -1906,8 +1905,8 @@
       <c r="J22" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="K22" s="10" t="s">
-        <v>102</v>
+      <c r="K22" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="L22" s="11" t="b">
         <v>1</v>
@@ -1919,39 +1918,39 @@
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E23" s="9">
         <v>2005</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="H23" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23" s="9" t="s">
         <v>101</v>
-      </c>
-      <c r="I23" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="J23" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K23" s="10" t="s">
-        <v>115</v>
       </c>
       <c r="L23" s="11" t="b">
         <v>1</v>
@@ -1963,9 +1962,9 @@
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>45</v>
@@ -1974,19 +1973,19 @@
         <v>47</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E24" s="9">
         <v>2005</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>109</v>
       </c>
       <c r="I24" s="18" t="s">
         <v>34</v>
@@ -1994,8 +1993,8 @@
       <c r="J24" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="K24" s="10" t="s">
-        <v>102</v>
+      <c r="K24" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="L24" s="11" t="b">
         <v>1</v>
@@ -2007,39 +2006,39 @@
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="10" t="s">
         <v>106</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>96</v>
       </c>
       <c r="E25" s="9">
         <v>2005</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="H25" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25" s="9" t="s">
         <v>101</v>
-      </c>
-      <c r="I25" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="J25" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K25" s="10" t="s">
-        <v>115</v>
       </c>
       <c r="L25" s="11" t="b">
         <v>1</v>
@@ -2051,30 +2050,30 @@
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E26" s="9">
         <v>2010</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>116</v>
       </c>
       <c r="I26" s="18" t="s">
         <v>34</v>
@@ -2082,14 +2081,14 @@
       <c r="J26" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="K26" s="10" t="s">
-        <v>116</v>
+      <c r="K26" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="L26" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="M26" s="2" t="s">
-        <v>117</v>
+      <c r="M26" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="N26" s="12" t="s">
         <v>44</v>
@@ -2097,30 +2096,30 @@
       <c r="O26" s="11"/>
       <c r="P26" s="11"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>113</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>109</v>
       </c>
       <c r="E27" s="9">
         <v>2010</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>116</v>
       </c>
       <c r="I27" s="18" t="s">
         <v>34</v>
@@ -2128,14 +2127,14 @@
       <c r="J27" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="K27" s="10" t="s">
-        <v>116</v>
+      <c r="K27" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="L27" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="M27" s="2" t="s">
-        <v>117</v>
+      <c r="M27" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="N27" s="12" t="s">
         <v>44</v>
@@ -2143,30 +2142,30 @@
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E28" s="9">
         <v>2010</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>116</v>
       </c>
       <c r="I28" s="18" t="s">
         <v>34</v>
@@ -2174,14 +2173,14 @@
       <c r="J28" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="K28" s="10" t="s">
-        <v>116</v>
+      <c r="K28" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="L28" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="M28" s="2" t="s">
-        <v>117</v>
+      <c r="M28" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="N28" s="12" t="s">
         <v>44</v>

--- a/zero-erp/src/main/resources/plugin/erp/oob/rule/process.oa.trip/activity-rule.xlsx
+++ b/zero-erp/src/main/resources/plugin/erp/oob/rule/process.oa.trip/activity-rule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xuanhong\zero-ws\zero-extension\zero-erp\src\main\resources\plugin\erp\oob\rule\process.oa.trip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584B1208-B0B0-47D3-8E4C-2AAFE48C112F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656C46E8-9104-45A5-8BCF-D2A3E9E890A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12624" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="121">
   <si>
     <t>key</t>
   </si>
@@ -416,62 +416,70 @@
     <t>JSON:workflow/linkage/attachment-rule.json</t>
   </si>
   <si>
+    <t>$zn.status == "DRAFT" and $zn.phase == "REDO"</t>
+  </si>
+  <si>
+    <t>APPROVAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批意见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$zn.commentApproval != null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过：${zn.commentApproval}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$zo.taskKey == "e.approve" and $zn.commentReject != null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拒绝：${zn.commentReject}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$zo.taskKey == "e.admit" and $zn.commentReject != null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTACHMENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件变更</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$zn.linkageAttachment != null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“${lo.realname}” ${zn.__message}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“${lo.realname}”将任务单：${zn.taskSerial}分派给了“${un.toUser.realname}”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$zn.status == "PENDING" and $zn.toUser != null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>$zn.status == "DRAFT" and $zn.phase == "REJECTED"</t>
-  </si>
-  <si>
-    <t>$zn.status == "DRAFT" and $zn.phase == "REDO"</t>
-  </si>
-  <si>
-    <t>APPROVAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审批意见</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$zn.commentApproval != null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过：${zn.commentApproval}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$zo.taskKey == "e.approve" and $zn.commentReject != null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拒绝：${zn.commentReject}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$zo.taskKey == "e.admit" and $zn.commentReject != null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATTACHMENT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附件变更</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$zn.linkageAttachment != null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“${lo.realname}” ${zn.__message}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“${lo.realname}”将任务单：${zn.taskSerial}分派给了“${un.toUser.realname}”。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$zn.status == "PENDING" and $zn.toUser != null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$zn.status == "DRAFT" and $zo.acceptedBy != null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3ad5085d-fdc2-4d43-881f-7b15f27f6cfd</t>
   </si>
 </sst>
 </file>
@@ -1005,30 +1013,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500280C7-B0AC-7C45-9420-F2551253A777}">
-  <dimension ref="A2:P28"/>
+  <dimension ref="A2:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="54.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.81640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="69.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="111" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.1796875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="18.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="51" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="81.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.08984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.36328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="68.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="92.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="52" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="72.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="10.81640625" style="2"/>
   </cols>
   <sheetData>
@@ -1242,7 +1250,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>45</v>
@@ -1251,19 +1259,19 @@
         <v>31</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E7" s="9">
         <v>1010</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>57</v>
+        <v>50</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>119</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>34</v>
@@ -1271,7 +1279,9 @@
       <c r="J7" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="K7" s="9"/>
+      <c r="K7" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="L7" s="11" t="b">
         <v>1</v>
       </c>
@@ -1284,7 +1294,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>45</v>
@@ -1299,13 +1309,13 @@
         <v>1010</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>34</v>
@@ -1326,7 +1336,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>45</v>
@@ -1337,17 +1347,17 @@
       <c r="D9" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="17">
-        <v>1015</v>
+      <c r="E9" s="9">
+        <v>1010</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I9" s="11" t="s">
         <v>34</v>
@@ -1368,7 +1378,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>45</v>
@@ -1383,13 +1393,13 @@
         <v>1015</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I10" s="11" t="s">
         <v>34</v>
@@ -1410,28 +1420,28 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>54</v>
       </c>
       <c r="E11" s="17">
-        <v>1005</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>37</v>
+        <v>1015</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I11" s="11" t="s">
         <v>34</v>
@@ -1452,10 +1462,10 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>36</v>
@@ -1463,17 +1473,17 @@
       <c r="D12" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="9">
-        <v>1010</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>118</v>
+      <c r="E12" s="17">
+        <v>1005</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>90</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>34</v>
@@ -1494,7 +1504,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>45</v>
@@ -1503,19 +1513,19 @@
         <v>36</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="E13" s="9">
         <v>1010</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>91</v>
+      <c r="F13" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>117</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>34</v>
@@ -1523,9 +1533,7 @@
       <c r="J13" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="11" t="s">
-        <v>41</v>
-      </c>
+      <c r="K13" s="9"/>
       <c r="L13" s="11" t="b">
         <v>1</v>
       </c>
@@ -1538,7 +1546,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>45</v>
@@ -1547,19 +1555,19 @@
         <v>36</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E14" s="9">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>57</v>
+        <v>50</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>91</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="I14" s="11" t="s">
         <v>34</v>
@@ -1567,7 +1575,9 @@
       <c r="J14" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="K14" s="9"/>
+      <c r="K14" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="L14" s="11" t="b">
         <v>1</v>
       </c>
@@ -1580,7 +1590,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>45</v>
@@ -1595,13 +1605,13 @@
         <v>1015</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I15" s="11" t="s">
         <v>34</v>
@@ -1622,30 +1632,30 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>54</v>
       </c>
       <c r="E16" s="9">
-        <v>1005</v>
+        <v>1015</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="I16" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J16" s="11" t="s">
@@ -1664,7 +1674,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>45</v>
@@ -1676,18 +1686,18 @@
         <v>54</v>
       </c>
       <c r="E17" s="9">
-        <v>1010</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>49</v>
+        <v>1005</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="I17" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I17" s="18" t="s">
         <v>34</v>
       </c>
       <c r="J17" s="11" t="s">
@@ -1706,7 +1716,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>45</v>
@@ -1715,19 +1725,19 @@
         <v>47</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="E18" s="9">
         <v>1010</v>
       </c>
-      <c r="F18" s="11" t="s">
-        <v>50</v>
+      <c r="F18" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="I18" s="11" t="s">
         <v>34</v>
@@ -1735,9 +1745,7 @@
       <c r="J18" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="K18" s="11" t="s">
-        <v>41</v>
-      </c>
+      <c r="K18" s="9"/>
       <c r="L18" s="11" t="b">
         <v>1</v>
       </c>
@@ -1750,7 +1758,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>45</v>
@@ -1759,19 +1767,19 @@
         <v>47</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E19" s="9">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="I19" s="11" t="s">
         <v>34</v>
@@ -1779,7 +1787,9 @@
       <c r="J19" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="K19" s="9"/>
+      <c r="K19" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="L19" s="11" t="b">
         <v>1</v>
       </c>
@@ -1792,7 +1802,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>45</v>
@@ -1807,13 +1817,13 @@
         <v>1015</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I20" s="11" t="s">
         <v>34</v>
@@ -1834,7 +1844,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>45</v>
@@ -1846,18 +1856,18 @@
         <v>54</v>
       </c>
       <c r="E21" s="9">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="I21" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="I21" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J21" s="11" t="s">
@@ -1876,28 +1886,28 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>106</v>
+        <v>54</v>
       </c>
       <c r="E22" s="9">
-        <v>2005</v>
+        <v>1020</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="I22" s="18" t="s">
         <v>34</v>
@@ -1905,9 +1915,7 @@
       <c r="J22" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="K22" s="9" t="s">
-        <v>93</v>
-      </c>
+      <c r="K22" s="9"/>
       <c r="L22" s="11" t="b">
         <v>1</v>
       </c>
@@ -1920,28 +1928,28 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E23" s="9">
         <v>2005</v>
       </c>
       <c r="F23" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G23" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="G23" s="11" t="s">
-        <v>110</v>
-      </c>
       <c r="H23" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I23" s="18" t="s">
         <v>34</v>
@@ -1950,7 +1958,7 @@
         <v>46</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="L23" s="11" t="b">
         <v>1</v>
@@ -1964,28 +1972,28 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E24" s="9">
         <v>2005</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I24" s="18" t="s">
         <v>34</v>
@@ -1994,7 +2002,7 @@
         <v>46</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="L24" s="11" t="b">
         <v>1</v>
@@ -2008,28 +2016,28 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E25" s="9">
         <v>2005</v>
       </c>
       <c r="F25" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G25" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="G25" s="11" t="s">
-        <v>112</v>
-      </c>
       <c r="H25" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I25" s="18" t="s">
         <v>34</v>
@@ -2038,7 +2046,7 @@
         <v>46</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="L25" s="11" t="b">
         <v>1</v>
@@ -2052,7 +2060,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>45</v>
@@ -2061,19 +2069,19 @@
         <v>31</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E26" s="9">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="I26" s="18" t="s">
         <v>34</v>
@@ -2082,14 +2090,12 @@
         <v>46</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L26" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="M26" s="11" t="s">
-        <v>103</v>
-      </c>
+      <c r="M26" s="11"/>
       <c r="N26" s="12" t="s">
         <v>44</v>
       </c>
@@ -2098,28 +2104,28 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E27" s="9">
         <v>2010</v>
       </c>
       <c r="F27" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G27" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="H27" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>116</v>
       </c>
       <c r="I27" s="18" t="s">
         <v>34</v>
@@ -2144,28 +2150,28 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E28" s="9">
         <v>2010</v>
       </c>
       <c r="F28" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G28" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="H28" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>116</v>
       </c>
       <c r="I28" s="18" t="s">
         <v>34</v>
@@ -2187,6 +2193,52 @@
       </c>
       <c r="O28" s="11"/>
       <c r="P28" s="11"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A29" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E29" s="9">
+        <v>2010</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="L29" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="N29" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/zero-erp/src/main/resources/plugin/erp/oob/rule/process.oa.trip/activity-rule.xlsx
+++ b/zero-erp/src/main/resources/plugin/erp/oob/rule/process.oa.trip/activity-rule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xuanhong\zero-ws\zero-extension\zero-erp\src\main\resources\plugin\erp\oob\rule\process.oa.trip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656C46E8-9104-45A5-8BCF-D2A3E9E890A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52333E48-E594-41C2-A7D6-6D8622C8B672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12624" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="118">
   <si>
     <t>key</t>
   </si>
@@ -159,18 +159,6 @@
   </si>
   <si>
     <t>e.draft</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规则名空间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ruleNs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cn.originx.vie.app.xc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -564,7 +552,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -621,19 +609,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -650,7 +625,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -694,11 +669,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1013,10 +987,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500280C7-B0AC-7C45-9420-F2551253A777}">
-  <dimension ref="A2:P29"/>
+  <dimension ref="A2:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.35"/>
@@ -1029,18 +1003,17 @@
     <col min="6" max="6" width="17.6328125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="68.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="92.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="52" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="72.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="10.81640625" style="2"/>
+    <col min="9" max="9" width="15.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="52" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="72.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.81640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
@@ -1062,9 +1035,8 @@
       <c r="M2" s="15"/>
       <c r="N2" s="15"/>
       <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1078,7 +1050,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>10</v>
@@ -1090,31 +1062,28 @@
         <v>16</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -1128,7 +1097,7 @@
         <v>17</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>18</v>
@@ -1140,1105 +1109,1027 @@
         <v>24</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="P4" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E5" s="9">
         <v>1005</v>
       </c>
       <c r="F5" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>56</v>
-      </c>
       <c r="H5" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" s="11"/>
-      <c r="N5" s="12" t="s">
-        <v>44</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" s="11"/>
+      <c r="M5" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="11"/>
       <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E6" s="9">
         <v>1005</v>
       </c>
-      <c r="F6" s="20" t="s">
-        <v>37</v>
+      <c r="F6" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M6" s="11"/>
-      <c r="N6" s="12" t="s">
-        <v>44</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="K6" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" s="11"/>
+      <c r="M6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="11"/>
       <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E7" s="9">
         <v>1010</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>119</v>
+        <v>47</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>116</v>
       </c>
       <c r="H7" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" s="11"/>
+      <c r="M7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="I7" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M7" s="11"/>
-      <c r="N7" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>72</v>
-      </c>
       <c r="B8" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E8" s="9">
         <v>1010</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M8" s="11"/>
-      <c r="N8" s="12" t="s">
-        <v>44</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" s="11"/>
+      <c r="M8" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" s="11"/>
       <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E9" s="9">
         <v>1010</v>
       </c>
       <c r="F9" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>58</v>
-      </c>
       <c r="H9" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M9" s="11"/>
-      <c r="N9" s="12" t="s">
-        <v>44</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" s="11"/>
+      <c r="M9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9" s="11"/>
       <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E10" s="17">
         <v>1015</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M10" s="11"/>
-      <c r="N10" s="12" t="s">
-        <v>44</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="J10" s="9"/>
+      <c r="K10" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" s="11"/>
+      <c r="M10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10" s="11"/>
       <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E11" s="17">
         <v>1015</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M11" s="11"/>
-      <c r="N11" s="12" t="s">
-        <v>44</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" s="11"/>
+      <c r="M11" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N11" s="11"/>
       <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E12" s="17">
         <v>1005</v>
       </c>
-      <c r="F12" s="19" t="s">
-        <v>37</v>
+      <c r="F12" s="18" t="s">
+        <v>34</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M12" s="11"/>
-      <c r="N12" s="12" t="s">
-        <v>44</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="J12" s="9"/>
+      <c r="K12" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" s="11"/>
+      <c r="M12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N12" s="11"/>
       <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E13" s="9">
         <v>1010</v>
       </c>
-      <c r="F13" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>117</v>
+      <c r="F13" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>114</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K13" s="9"/>
-      <c r="L13" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M13" s="11"/>
-      <c r="N13" s="12" t="s">
-        <v>44</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="J13" s="9"/>
+      <c r="K13" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" s="11"/>
+      <c r="M13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N13" s="11"/>
       <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E14" s="9">
         <v>1010</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>91</v>
+        <v>47</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>88</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="L14" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M14" s="11"/>
-      <c r="N14" s="12" t="s">
-        <v>44</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="K14" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" s="11"/>
+      <c r="M14" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N14" s="11"/>
       <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E15" s="9">
         <v>1015</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K15" s="9"/>
-      <c r="L15" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M15" s="11"/>
-      <c r="N15" s="12" t="s">
-        <v>44</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="J15" s="9"/>
+      <c r="K15" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" s="11"/>
+      <c r="M15" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N15" s="11"/>
       <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E16" s="9">
         <v>1015</v>
       </c>
       <c r="F16" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="G16" s="11" t="s">
-        <v>58</v>
-      </c>
       <c r="H16" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K16" s="9"/>
-      <c r="L16" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M16" s="11"/>
-      <c r="N16" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16" s="9"/>
+      <c r="K16" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" s="11"/>
+      <c r="M16" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A17" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>47</v>
-      </c>
       <c r="D17" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E17" s="9">
         <v>1005</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K17" s="9"/>
-      <c r="L17" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M17" s="11"/>
-      <c r="N17" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" s="9"/>
+      <c r="K17" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" s="11"/>
+      <c r="M17" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A18" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A18" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>47</v>
-      </c>
       <c r="D18" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E18" s="9">
         <v>1010</v>
       </c>
-      <c r="F18" s="19" t="s">
-        <v>49</v>
+      <c r="F18" s="18" t="s">
+        <v>46</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K18" s="9"/>
-      <c r="L18" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M18" s="11"/>
-      <c r="N18" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18" s="9"/>
+      <c r="K18" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" s="11"/>
+      <c r="M18" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A19" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A19" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>47</v>
-      </c>
       <c r="D19" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E19" s="9">
         <v>1010</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K19" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="L19" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M19" s="11"/>
-      <c r="N19" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K19" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" s="11"/>
+      <c r="M19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A20" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A20" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>47</v>
-      </c>
       <c r="D20" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E20" s="9">
         <v>1015</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K20" s="9"/>
-      <c r="L20" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M20" s="11"/>
-      <c r="N20" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J20" s="9"/>
+      <c r="K20" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" s="11"/>
+      <c r="M20" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A21" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A21" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>47</v>
-      </c>
       <c r="D21" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E21" s="9">
         <v>1015</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J21" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K21" s="9"/>
-      <c r="L21" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M21" s="11"/>
-      <c r="N21" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J21" s="9"/>
+      <c r="K21" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" s="11"/>
+      <c r="M21" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A22" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A22" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>47</v>
-      </c>
       <c r="D22" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E22" s="9">
         <v>1020</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="I22" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="J22" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K22" s="9"/>
-      <c r="L22" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M22" s="11"/>
-      <c r="N22" s="12" t="s">
-        <v>44</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J22" s="9"/>
+      <c r="K22" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22" s="11"/>
+      <c r="M22" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N22" s="11"/>
       <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E23" s="9">
         <v>2005</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="I23" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="J23" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="L23" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M23" s="11"/>
-      <c r="N23" s="12" t="s">
-        <v>44</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="K23" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L23" s="11"/>
+      <c r="M23" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N23" s="11"/>
       <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E24" s="9">
         <v>2005</v>
       </c>
       <c r="F24" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="G24" s="11" t="s">
-        <v>109</v>
-      </c>
       <c r="H24" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="I24" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K24" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="L24" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M24" s="11"/>
-      <c r="N24" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K24" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L24" s="11"/>
+      <c r="M24" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A25" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A25" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>47</v>
-      </c>
       <c r="D25" s="10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E25" s="9">
         <v>2005</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="I25" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="J25" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="L25" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M25" s="11"/>
-      <c r="N25" s="12" t="s">
-        <v>44</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="K25" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L25" s="11"/>
+      <c r="M25" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N25" s="11"/>
       <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E26" s="9">
         <v>2005</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="I26" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="J26" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K26" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="L26" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M26" s="11"/>
-      <c r="N26" s="12" t="s">
-        <v>44</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K26" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L26" s="11"/>
+      <c r="M26" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N26" s="11"/>
       <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E27" s="9">
         <v>2010</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="I27" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="J27" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K27" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="L27" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M27" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="N27" s="12" t="s">
-        <v>44</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K27" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L27" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="M27" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N27" s="11"/>
       <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E28" s="9">
         <v>2010</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="I28" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="J28" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K28" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="L28" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M28" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="N28" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K28" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L28" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="M28" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A29" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A29" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>47</v>
-      </c>
       <c r="D29" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E29" s="9">
         <v>2010</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="I29" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="J29" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K29" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="L29" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M29" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="N29" s="12" t="s">
-        <v>44</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K29" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L29" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="M29" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N29" s="11"/>
       <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
